--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1003.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1003.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.203559006502876</v>
+        <v>1.535459160804749</v>
       </c>
       <c r="B1">
-        <v>2.380743856328849</v>
+        <v>1.686869978904724</v>
       </c>
       <c r="C1">
-        <v>4.659931964898433</v>
+        <v>2.003501176834106</v>
       </c>
       <c r="D1">
-        <v>2.433242719416083</v>
+        <v>3.066848278045654</v>
       </c>
       <c r="E1">
-        <v>1.005721040318762</v>
+        <v>1.365401148796082</v>
       </c>
     </row>
   </sheetData>
